--- a/project files/lists/top250films.xlsx
+++ b/project files/lists/top250films.xlsx
@@ -4511,7 +4511,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4519,7 +4519,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4986,10 +4986,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -5124,7 +5124,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5473,14 +5473,15 @@
   <sheetPr/>
   <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="30.9134615384615" customWidth="1"/>
+    <col min="4" max="4" width="80.8461538461538" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="39.1826923076923" customWidth="1"/>
     <col min="7" max="7" width="26.5480769230769" customWidth="1"/>
@@ -14285,7 +14286,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="E2:E251 I3:I251 I2" numberStoredAsText="1"/>
+    <ignoredError sqref="I2 I3:I251 E2:E251" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>